--- a/Liste_des_problemesJ_solutions_et_choix.xlsx
+++ b/Liste_des_problemesJ_solutions_et_choix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidan\OneDrive - Cégep de l'Outaouais\Bureau\Session 5\PPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C773A-16DF-4198-B85B-479F84BCA660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB7B7EC-32BB-4B09-AFBD-18CD8A5816F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1830" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Dans cette colomne préciser le nom de votre équipe</t>
   </si>
@@ -151,27 +151,18 @@
     <t>Nous n'avons pas de partie dans notre code pour indiquer si le dispositif est allumé ou éteint, donc l'utilisateur n'a aucun moyen de connaître l'état du Raspberry Pi.</t>
   </si>
   <si>
-    <t>1 : Implémenter une fonction pour afficher l'état du Raspberry Pi (activé ou désactivé).</t>
-  </si>
-  <si>
     <t>2 : Ajouter une LED qui s’allume ou s’éteint avec le Raspberry Pi.</t>
   </si>
   <si>
     <t>Notre code n'est pas optimisé pour que les piles puissent durées plusieurs mois voir année.</t>
   </si>
   <si>
-    <t>1 : Mettre le Raspberry Pi en mode veille lorsqu'il n'envoie pas de données.</t>
-  </si>
-  <si>
     <t>2 :</t>
   </si>
   <si>
     <t>Notre calcul du pourcentage pour les piles était linéaire au lieu d'être exponentielle donc le pourcentage vue sur thingsboard n'était pas réellement la vraie tension des piles.</t>
   </si>
   <si>
-    <t>1 :Faire une fonction exponentielle au lieu de linéaire</t>
-  </si>
-  <si>
     <t>Réseau (WiFi / LoRaWAN)</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t xml:space="preserve">3 : </t>
   </si>
   <si>
-    <t>1 :Activer le Wi-Fi uniquement quand nécessaire</t>
-  </si>
-  <si>
     <t>2 :Ajouter un module de gestion de puissance externe</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>Boitier (3D)</t>
   </si>
   <si>
-    <t>Choix 3</t>
-  </si>
-  <si>
     <t>Il existe des limitations concernant la connexion Wi-Fi, car le SSID et le mot de passe sont codés en dur. Ainsi, lorsque le réseau Wi-Fi change, il est nécessaire de modifier manuellement les informations de connexion et de recharger le code sur le Raspberry Pi Pico.</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>Nous n'avons pas pensé à la façon dont les batteries pourraient se connecter au PCB, car elles sont toutes deux dans des boîtiers différents.</t>
   </si>
   <si>
-    <t>1 : Utiliser un mode de configuration via un point d'accès.</t>
-  </si>
-  <si>
     <t>1 : S'assurer que les clés d'identification envoyées par le code ont les mêmes noms que celles demandées par le cloud.</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
   </si>
   <si>
     <t>2 : Refaire le design du boîtier en incluant directement des trous entre les deux parties pour permettre le passage des fils de l'alimentation.</t>
-  </si>
-  <si>
-    <t>3 : Utiliser une perceuse pour percer manuellement des trous entre les deux parties afin de faire passer les fils de l'alimentation.</t>
   </si>
   <si>
     <t>Problème 1 : Nous avons opté pour cette solution, car sans la bonne clé d'identification, il est impossible de recevoir les données du Raspberry Pi et de les afficher sur le tableau de bord.</t>
@@ -256,6 +235,30 @@
     <t>Problème 1 : Nous avons opté pour cette solution, car avec une LED, il faut être dans la même pièce pour voir si le Raspberry Pi est allumé ou non. En intégrant une fonction dans le code, on peut voir directement l'état sur le serveur web, ce qui est plus efficace.
 Problème 2 : Nous avons choisi cette solution, car elle est simple à intégrer dans le code et très efficace. En mode veille, le Raspberry Pi consomme seulement quelques microampères, donc elle peut survivre beaucoup pus longtemps sur une paire de pile.
 Problème 3 : Nous avons choisi cette option pour une raison évidente : une pile se décharge de manière exponentielle décroissante, donc avec une formule linéaire, nous ne lisions pas correctement le niveau des piles.</t>
+  </si>
+  <si>
+    <t>4 : Utiliser une perceuse pour percer manuellement des trous entre les deux parties afin de faire passer les fils de l'alimentation.</t>
+  </si>
+  <si>
+    <t>Choix 4</t>
+  </si>
+  <si>
+    <t>3:Modifier notre facon d'alimenter notre PCB en ajoutant des supports à batteries souder directement sur notre PCB afin faire seulement une partie pour notre PCB aulieu de deux parties.</t>
+  </si>
+  <si>
+    <t>1 : Amélioration: Mettre le Raspberry Pi en mode veille lorsqu'il n'envoie pas de données.</t>
+  </si>
+  <si>
+    <t>1 :Amélioration: Faire une fonction exponentielle au lieu de linéaire</t>
+  </si>
+  <si>
+    <t>1 : Amélioration: Implémenter une fonction pour afficher l'état du Raspberry Pi (activé ou désactivé).</t>
+  </si>
+  <si>
+    <t>1 :Amélioration: Utiliser un mode de configuration via un point d'accès.</t>
+  </si>
+  <si>
+    <t>1  Amélioration :Activer le Wi-Fi uniquement quand nécessaire</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -594,22 +597,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,25 +640,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,10 +861,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J30"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -876,11 +882,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="2:10" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -938,667 +944,685 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="32"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="18">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26">
         <v>2</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
       <c r="H11" s="6"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="18">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26">
         <v>4</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="33"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="27">
         <v>1</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="25" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="32"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="18">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26">
         <v>2</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>38</v>
+      <c r="G18" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="32"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="18">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="26">
         <v>3</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>41</v>
+      <c r="G20" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="19"/>
-      <c r="J22" s="33"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="27">
         <v>1</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>52</v>
+      <c r="G23" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>68</v>
+      <c r="J23" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="21"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="18">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="26">
         <v>2</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>53</v>
+      <c r="G26" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="32"/>
+        <v>70</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="18">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26">
         <v>3</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="19"/>
-      <c r="J30" s="33"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="20" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="27">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="32" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="29"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="32"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="18">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="26">
         <v>2</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="21"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="17"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="18">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="26">
         <v>3</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="19"/>
-      <c r="J38" s="33"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="20" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="27">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="15">
-        <v>1</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="H39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="40" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="21"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="32"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="18">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="26">
         <v>2</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>56</v>
+      <c r="G42" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="32"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="21"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I43" s="17"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="18">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="26">
         <v>3</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" s="32"/>
-    </row>
-    <row r="45" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="32"/>
-    </row>
-    <row r="46" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="33"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="J15:J22"/>
-    <mergeCell ref="J23:J30"/>
-    <mergeCell ref="J31:J38"/>
-    <mergeCell ref="J39:J46"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="B6:B47"/>
+    <mergeCell ref="C6:C47"/>
+    <mergeCell ref="D6:D47"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G35"/>
     <mergeCell ref="J6:J14"/>
     <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="E39:E47"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G44:G47"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="F26:F27"/>
@@ -1609,30 +1633,25 @@
     <mergeCell ref="E6:E14"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E15:E22"/>
-    <mergeCell ref="B6:B46"/>
-    <mergeCell ref="C6:C46"/>
-    <mergeCell ref="D6:D46"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J15:J22"/>
+    <mergeCell ref="J23:J30"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="J39:J47"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
